--- a/test_files/test.xlsx
+++ b/test_files/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView windowWidth="10830" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -24,23 +24,366 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -48,23 +391,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -82,11 +719,91 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 2" descr="image.png"/>
         <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="635000"/>
+          <a:ext cx="409575" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2" descr="BT1-001R.png"/>
+        <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:ln/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="false" fPrintsWithSheet="true"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3" descr="BT1-001R.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -148,7 +865,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -183,7 +900,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -357,42 +1074,51 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="true" max="8" min="1" width="5.57"/>
+  </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="1" ht="45" customHeight="true"/>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
+    <row r="1" ht="50" customHeight="1"/>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>